--- a/database_excel_files/CampIdToFacultyId.xlsx
+++ b/database_excel_files/CampIdToFacultyId.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="17">
   <si>
     <t>campId</t>
   </si>
@@ -40,6 +40,42 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>036c3265b4bb41749b28030f2d681b18</t>
+  </si>
+  <si>
+    <t>c9d8e441332d46bbb9655b8239c26e94</t>
+  </si>
+  <si>
+    <t>c6a4beee0132472a99800fe0c310c731</t>
+  </si>
+  <si>
+    <t>9158045f96d94c5aa491ec89cd535822</t>
+  </si>
+  <si>
+    <t>4e4ed4b05deb4e239c0db58cbafa0c79</t>
+  </si>
+  <si>
+    <t>bcd87aa97a8f4a9eb41a5d0a51448243</t>
+  </si>
+  <si>
+    <t>dde1060bd59542ceabe5217c33f8b5b2</t>
+  </si>
+  <si>
+    <t>869ec10290874e52a21ffd2786b7d5c9</t>
+  </si>
+  <si>
+    <t>4abd63eec1534cd086b5865988360cd6</t>
+  </si>
+  <si>
+    <t>d3eb0ccfcf8647429f74b62f5acb28d9</t>
+  </si>
+  <si>
+    <t>9916b1bd30d74d6194db37f2da1848f4</t>
+  </si>
+  <si>
+    <t>65a645fbd9a5458bae204ce7fe655a73</t>
   </si>
 </sst>
 </file>
@@ -358,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
@@ -405,6 +441,326 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database_excel_files/CampIdToFacultyId.xlsx
+++ b/database_excel_files/CampIdToFacultyId.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xd1rac\Code\SC2002_Lab_Project\database_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-YQ1/database_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB567A2-3011-4CE7-B889-F625B464D5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BAB567A2-3011-4CE7-B889-F625B464D5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00CC4410-6F9A-41E9-A9CB-4521EF344C53}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10890" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="29">
   <si>
     <t>campId</t>
   </si>
@@ -33,18 +33,12 @@
     <t>faculty</t>
   </si>
   <si>
-    <t>d0ec9903fd224708a8379cca20c4ce6c</t>
+    <t>dddb3f881c084008bfa6696b4c2b66f0</t>
   </si>
   <si>
     <t>98d0e59407f946b7aed49150ceba8627</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>036c3265b4bb41749b28030f2d681b18</t>
-  </si>
-  <si>
     <t>c9d8e441332d46bbb9655b8239c26e94</t>
   </si>
   <si>
@@ -66,16 +60,58 @@
     <t>869ec10290874e52a21ffd2786b7d5c9</t>
   </si>
   <si>
-    <t>4abd63eec1534cd086b5865988360cd6</t>
-  </si>
-  <si>
-    <t>d3eb0ccfcf8647429f74b62f5acb28d9</t>
-  </si>
-  <si>
-    <t>9916b1bd30d74d6194db37f2da1848f4</t>
-  </si>
-  <si>
-    <t>65a645fbd9a5458bae204ce7fe655a73</t>
+    <t>2f0773e8c1f647c5a74090400cca7516</t>
+  </si>
+  <si>
+    <t>ca69ed25cad2430e982ade6efb608496</t>
+  </si>
+  <si>
+    <t>3288d570e59b4ef1ac054e85e9f425c3</t>
+  </si>
+  <si>
+    <t>644f4770cf684353879c2ad3ea99edd7</t>
+  </si>
+  <si>
+    <t>3c28c12f784448ae9d5f4811a345e286</t>
+  </si>
+  <si>
+    <t>29622a1e5fb94719a321562892213981</t>
+  </si>
+  <si>
+    <t>bffcf15328ed4372a865c4dc3f640ab0</t>
+  </si>
+  <si>
+    <t>27bcba2f97b04d2ca0d1ac3cf965bfd9</t>
+  </si>
+  <si>
+    <t>3c97b2d08b0248d8afbfd6706b9ec1ad</t>
+  </si>
+  <si>
+    <t>b36022d242634e649f4c376ea4626f7b</t>
+  </si>
+  <si>
+    <t>c9b220bbc1e64a8382c22ac0052ae390</t>
+  </si>
+  <si>
+    <t>28f4c938cfaa4b3ea9abd87895750a88</t>
+  </si>
+  <si>
+    <t>08376b4ec41b4756a63e76327e64a94c</t>
+  </si>
+  <si>
+    <t>a9152a65483e4ba0a7b0d79d47ab74ec</t>
+  </si>
+  <si>
+    <t>d235cfbacef2457089ac6c10cd44717d</t>
+  </si>
+  <si>
+    <t>bccff4bdb58f4827b2613abf1486e949</t>
+  </si>
+  <si>
+    <t>4a1065c41f8b4b679b087c09895eab82</t>
+  </si>
+  <si>
+    <t>f731d24c90ea45ff858fffa0ae352327</t>
   </si>
 </sst>
 </file>
@@ -394,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -438,327 +474,1199 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B44" t="s" s="0">
-        <v>12</v>
+      <c r="B50" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
